--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-DeviceUseStatement.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-DeviceUseStatement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="245">
   <si>
     <t>Property</t>
   </si>
@@ -148,10 +148,6 @@
     <t>患者が報告した情報または他の臨床医からの報告によって得られた、装置の使用記録。</t>
   </si>
   <si>
-    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -202,79 +198,79 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>DeviceUseStatement.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DeviceUseStatement.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DeviceUseStatement.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>DeviceUseStatement.meta.lastUpdated</t>
@@ -1254,30 +1250,30 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1288,28 +1284,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1359,13 +1355,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1391,10 +1387,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1405,25 +1401,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1474,19 +1470,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1506,10 +1502,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1520,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -1532,13 +1528,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1589,13 +1585,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -1616,19 +1612,19 @@
         <v>37</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1647,16 +1643,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1694,19 +1690,19 @@
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -1718,7 +1714,7 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -1733,15 +1729,15 @@
         <v>37</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1752,28 +1748,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1823,19 +1819,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -1855,10 +1851,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1869,28 +1865,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1940,19 +1936,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -1972,10 +1968,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1986,28 +1982,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2057,19 +2053,19 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2089,10 +2085,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2112,19 +2108,19 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2174,7 +2170,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2186,7 +2182,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2206,10 +2202,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2229,19 +2225,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2267,31 +2263,31 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2303,7 +2299,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2323,10 +2319,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2346,19 +2342,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2384,31 +2380,31 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2420,7 +2416,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -2440,10 +2436,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2454,28 +2450,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2525,19 +2521,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -2557,10 +2553,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2571,7 +2567,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -2583,16 +2579,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2618,43 +2614,43 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -2674,21 +2670,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -2700,16 +2696,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2759,46 +2755,46 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2817,16 +2813,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2876,7 +2872,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -2903,19 +2899,19 @@
         <v>37</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2934,16 +2930,16 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2993,7 +2989,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3005,7 +3001,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -3020,19 +3016,19 @@
         <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3045,25 +3041,25 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3112,7 +3108,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3124,7 +3120,7 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -3139,15 +3135,15 @@
         <v>37</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3167,16 +3163,16 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3227,7 +3223,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3239,16 +3235,16 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3259,14 +3255,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3282,20 +3278,20 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -3344,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -3356,30 +3352,30 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3387,31 +3383,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3437,66 +3433,66 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3504,28 +3500,28 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3576,28 +3572,28 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>37</v>
@@ -3608,10 +3604,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3631,19 +3627,19 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3693,7 +3689,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -3705,7 +3701,7 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
@@ -3725,10 +3721,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3739,25 +3735,25 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3808,28 +3804,28 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -3840,10 +3836,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3854,25 +3850,25 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3923,28 +3919,28 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -3955,10 +3951,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3969,25 +3965,25 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4038,28 +4034,28 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -4070,10 +4066,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4081,28 +4077,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4153,28 +4149,28 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -4185,10 +4181,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4208,16 +4204,16 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4268,7 +4264,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -4280,16 +4276,16 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -4300,10 +4296,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4323,16 +4319,16 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4383,7 +4379,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -4395,30 +4391,30 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4429,29 +4425,29 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -4476,66 +4472,66 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4558,13 +4554,13 @@
         <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4615,7 +4611,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -4627,13 +4623,13 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>37</v>
